--- a/outcome/appendix/data/0_impact/Japanese encephalitis.xlsx
+++ b/outcome/appendix/data/0_impact/Japanese encephalitis.xlsx
@@ -409,7 +409,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>11.012039623418</v>
+        <v>11.0119951435828</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -427,7 +427,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>8.38773934867353</v>
+        <v>8.38767661682908</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -445,7 +445,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>7.40484466920785</v>
+        <v>7.40477739610131</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -463,7 +463,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>9.64669167844414</v>
+        <v>9.64663397298764</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -481,7 +481,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>8.61486711264243</v>
+        <v>8.61480439474789</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -499,7 +499,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>18.2189591014327</v>
+        <v>18.2189355825616</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -517,7 +517,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>68.9438334181266</v>
+        <v>68.9439826524454</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -535,7 +535,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>121.829930755905</v>
+        <v>121.830236225613</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -553,7 +553,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>72.6717590838492</v>
+        <v>72.6718735208607</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -571,7 +571,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>35.7279327838979</v>
+        <v>35.7279352997857</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -589,7 +589,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>15.4941458004997</v>
+        <v>15.4940920163098</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -607,7 +607,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>14.1307017377347</v>
+        <v>14.1306557676286</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -625,7 +625,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>13.38394406688</v>
+        <v>13.3838762824116</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -643,7 +643,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>11.9547751959497</v>
+        <v>11.9546893664379</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -661,7 +661,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>11.20119085348</v>
+        <v>11.2010979551565</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -679,7 +679,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>12.153195543298</v>
+        <v>12.1531106742532</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -697,7 +697,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>11.8306866009026</v>
+        <v>11.8305984287624</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -715,7 +715,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>16.4861429196919</v>
+        <v>16.4860923638066</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -733,7 +733,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>43.2190363672916</v>
+        <v>43.2191782208817</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -751,7 +751,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>79.1042008983771</v>
+        <v>79.1045823991433</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -769,7 +769,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>58.5522083245345</v>
+        <v>58.5524091203226</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -787,7 +787,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>34.4191783977192</v>
+        <v>34.4192120699039</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -805,7 +805,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>19.4746297107235</v>
+        <v>19.4745729512305</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -823,7 +823,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>15.9441666486265</v>
+        <v>15.9441001790818</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -841,7 +841,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>14.8980800767553</v>
+        <v>14.8980008939614</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -859,7 +859,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>13.9941329341868</v>
+        <v>13.9940400361477</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -877,7 +877,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>13.4506036935399</v>
+        <v>13.4505035707602</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -895,7 +895,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>13.813684623887</v>
+        <v>13.8135891222396</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -913,7 +913,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>13.7250431848683</v>
+        <v>13.7249461809819</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -931,7 +931,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>15.9988904674523</v>
+        <v>15.998820799423</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -949,7 +949,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>29.8218214469497</v>
+        <v>29.821905174683</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -967,7 +967,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>51.5227471508038</v>
+        <v>51.5230608564593</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -985,7 +985,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>45.0454155725572</v>
+        <v>45.0456287830177</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1003,7 +1003,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>31.1066907943042</v>
+        <v>31.1067468362754</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1021,7 +1021,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>20.8319750916684</v>
+        <v>20.8319306366616</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1039,7 +1039,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>17.1016623794884</v>
+        <v>17.1015911728995</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -1057,7 +1057,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>15.8670904766865</v>
+        <v>15.8670072798782</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -1075,7 +1075,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>15.183822107975</v>
+        <v>15.1837285631334</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
